--- a/coordinates_country.xlsx
+++ b/coordinates_country.xlsx
@@ -615,10 +615,10 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>23.6585116</v>
+        <v>19.4326296</v>
       </c>
       <c r="B23" t="n">
-        <v>-102.0077097</v>
+        <v>-99.1331785</v>
       </c>
     </row>
     <row r="24">
